--- a/data/ModelF_Herceptin_Params.xlsx
+++ b/data/ModelF_Herceptin_Params.xlsx
@@ -22,17 +22,23 @@
     <definedName name="eps">Sheet1!$F$46</definedName>
     <definedName name="k12D">Sheet1!$F$13</definedName>
     <definedName name="k13D">Sheet1!$F$49</definedName>
+    <definedName name="k13d_prop">Sheet1!$F$48</definedName>
+    <definedName name="k13d_thurber">Sheet1!$F$47</definedName>
     <definedName name="k13DS">Sheet1!$F$51</definedName>
     <definedName name="k13S">Sheet1!$F$50</definedName>
     <definedName name="k21D">Sheet1!$F$14</definedName>
     <definedName name="k31D">Sheet1!$F$54</definedName>
+    <definedName name="k31D_prop">Sheet1!$F$53</definedName>
+    <definedName name="k31D_thurber">Sheet1!$F$52</definedName>
     <definedName name="Kd">Sheet1!$F$18</definedName>
     <definedName name="keD">Sheet1!$F$5</definedName>
     <definedName name="keD3_">Sheet1!$F$36</definedName>
     <definedName name="keM3_">Sheet1!$F$39</definedName>
     <definedName name="koff">Sheet1!$F$18</definedName>
     <definedName name="kshed">Sheet1!$F$29</definedName>
+    <definedName name="kshedM3">Sheet1!$F$29</definedName>
     <definedName name="M30_">Sheet1!$F$27</definedName>
+    <definedName name="MWS">Sheet1!$F$16</definedName>
     <definedName name="P">Sheet1!$F$43</definedName>
     <definedName name="Q">Sheet1!$F$6</definedName>
     <definedName name="Rcap">Sheet1!$F$44</definedName>
@@ -40,8 +46,9 @@
     <definedName name="Vc">Sheet1!$F$7</definedName>
     <definedName name="VcDS">Sheet1!$F$10</definedName>
     <definedName name="VcS">Sheet1!$F$9</definedName>
-    <definedName name="VD1_">Sheet1!$E$7</definedName>
-    <definedName name="VD3_">Sheet1!$E$31</definedName>
+    <definedName name="VD1_">Sheet1!$F$7</definedName>
+    <definedName name="VD2_">Sheet1!$F$8</definedName>
+    <definedName name="VD3_">Sheet1!$F$31</definedName>
     <definedName name="Vp">Sheet1!$F$8</definedName>
     <definedName name="Vtum">Sheet1!$F$31</definedName>
     <definedName name="VtumDS">Sheet1!$F$33</definedName>
@@ -60,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="147">
   <si>
     <t>Parameter</t>
   </si>
@@ -194,12 +201,6 @@
     <t>Comment or Reference</t>
   </si>
   <si>
-    <t>Same as VD1</t>
-  </si>
-  <si>
-    <t>Same as VD3</t>
-  </si>
-  <si>
     <t>CL</t>
   </si>
   <si>
@@ -218,12 +219,6 @@
     <t>Tumor</t>
   </si>
   <si>
-    <t>Q/VD1</t>
-  </si>
-  <si>
-    <t>Q/VD2</t>
-  </si>
-  <si>
     <t>TMDD</t>
   </si>
   <si>
@@ -449,9 +444,6 @@
     <t>Ignore elimination from tumor - see Chen16 for justification or Sameed's work</t>
   </si>
   <si>
-    <t>M30 = ksynM3/keM3 --&gt; ksynM3 = M30*keM3</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -500,35 +492,22 @@
     <t>k13D_Proport</t>
   </si>
   <si>
-    <t>check ~ Thurb Or Prop</t>
-  </si>
-  <si>
     <t>k31D_Thurber</t>
   </si>
   <si>
     <t>k31D_PropMult</t>
   </si>
   <si>
-    <t>Choose proportional - but still a guess</t>
-  </si>
-  <si>
-    <t>guess k31D_PropMult</t>
-  </si>
-  <si>
     <t>Cilliers16 - 10.1208/s12248-016-9940-z - don't use in calculations because we account for it in V3 (ISF)</t>
   </si>
   <si>
-    <t>k31*Vc/Vtum (so that k31*Vtum/Vc = P*Rcap/Rkrough^2)</t>
-  </si>
-  <si>
-    <t>2*P*Rcap/Rkrogh^2 * Vtum to convert to amounts.  ignore eps because we focus on ISF
-see equation 6 of Thurber12 - 10.1016/j.jtbi.2012.08.034</t>
-  </si>
-  <si>
-    <t>choose proportional to k12*Vtum/Vp</t>
-  </si>
-  <si>
-    <t>VD1/VD3*3*k13D</t>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Formula from Cilliers16, from Thurber12 - 10.1016/j.jtbi.2012.08.034</t>
+  </si>
+  <si>
+    <t>Formula from Sameed's analysis</t>
   </si>
 </sst>
 </file>
@@ -574,7 +553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,12 +563,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,7 +601,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,11 +642,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -701,187 +677,24 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="22">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -899,55 +712,14 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1118,6 +890,155 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -1137,18 +1058,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I65" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19">
-  <autoFilter ref="A1:I65"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Order" dataDxfId="28"/>
-    <tableColumn id="2" name="ParamType" dataDxfId="27"/>
-    <tableColumn id="3" name="Molecule" dataDxfId="26"/>
-    <tableColumn id="4" name="Description" dataDxfId="25"/>
-    <tableColumn id="5" name="Parameter" dataDxfId="24"/>
-    <tableColumn id="6" name="Value" dataDxfId="23"/>
-    <tableColumn id="7" name="Units" dataDxfId="22"/>
-    <tableColumn id="8" name="Source" dataDxfId="21"/>
-    <tableColumn id="9" name="Comment or Reference" dataDxfId="20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J65" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J65"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Order" dataDxfId="9"/>
+    <tableColumn id="2" name="ParamType" dataDxfId="8"/>
+    <tableColumn id="3" name="Molecule" dataDxfId="7"/>
+    <tableColumn id="4" name="Description" dataDxfId="6"/>
+    <tableColumn id="5" name="Parameter" dataDxfId="5"/>
+    <tableColumn id="6" name="Value" dataDxfId="4"/>
+    <tableColumn id="7" name="Units" dataDxfId="3"/>
+    <tableColumn id="8" name="Source" dataDxfId="2"/>
+    <tableColumn id="10" name="Formula" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Comment or Reference" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1476,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1492,22 +1416,23 @@
     <col min="6" max="6" width="8.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="2" customWidth="1"/>
-    <col min="9" max="9" width="75.5" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="5"/>
+    <col min="9" max="9" width="25.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="75.5" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -1519,24 +1444,27 @@
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1548,22 +1476,26 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="I2" s="15" t="str">
+        <f t="shared" ref="I2:I33" ca="1" si="0">_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</f>
+        <v/>
+      </c>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1575,107 +1507,124 @@
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="I3" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="12">
         <v>0.22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I4" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="12">
+        <f>CL/Vc</f>
         <v>0.10476190476190476</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I5" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=CL/Vc</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" s="12">
         <v>0.36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I6" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -1687,24 +1636,28 @@
         <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I7" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -1716,321 +1669,356 @@
         <v>2</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I8" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="3">
-        <f>Vc</f>
+        <f>VD1_</f>
         <v>2.1</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I9" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=VD1_</v>
+      </c>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="3">
-        <f>F7</f>
+        <f>VD1_</f>
         <v>2.1</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I10" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=VD1_</v>
+      </c>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F11" s="3">
-        <f>Vc</f>
+        <f>VD1_</f>
         <v>2.1</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I11" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=VD1_</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F12" s="3">
-        <f>Vc</f>
+        <f>VD1_</f>
         <v>2.1</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I12" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=VD1_</v>
+      </c>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="3">
-        <f>Q/Vc</f>
+        <f>Q/VD1_</f>
         <v>0.1714285714285714</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I13" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=Q/VD1_</v>
+      </c>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="3">
-        <f>Q/Vp</f>
+        <f>Q/VD2_</f>
         <v>0.27692307692307688</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I14" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=Q/VD2_</v>
+      </c>
+      <c r="J14" s="9" t="str">
+        <f t="shared" ref="J14" ca="1" si="1">_xlfn.FORMULATEXT(F14)</f>
+        <v>=Q/VD2_</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>11.1</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F15" s="3">
         <v>145</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I15" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>11.2</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F16" s="3">
         <v>68.599999999999994</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I16" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11.3</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F17" s="3">
-        <f>F16</f>
+        <f>MWS</f>
         <v>68.599999999999994</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I17" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=MWS</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F18" s="12">
         <v>0.5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I18" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
@@ -2042,24 +2030,28 @@
         <v>4</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I19" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
@@ -2071,24 +2063,28 @@
         <v>4</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I20" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
@@ -2100,24 +2096,28 @@
         <v>20</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I21" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>17</v>
@@ -2129,24 +2129,28 @@
         <v>20</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I22" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -2158,24 +2162,28 @@
         <v>4</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I23" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>34</v>
@@ -2187,22 +2195,26 @@
         <v>4</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I24" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>36</v>
@@ -2214,24 +2226,28 @@
         <v>19</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="I25" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>37</v>
@@ -2243,51 +2259,59 @@
         <v>19</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="I26" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>20.100000000000001</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F27" s="12">
         <v>830</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I27" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>21</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>38</v>
@@ -2300,24 +2324,26 @@
         <v>19</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I28" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=M30_*keM3_</v>
+      </c>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>39</v>
@@ -2329,191 +2355,222 @@
         <v>4</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="I29" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>23</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F30" s="3">
-        <f>kshed</f>
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="I30" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>24</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="14">
         <v>0.1</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="I31" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>25</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="3">
-        <f>Vtum</f>
+        <f>VD3_</f>
         <v>0.1</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I32" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=VD3_</v>
+      </c>
+      <c r="J32" s="9" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(VtumS)</f>
+        <v>=VD3_</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>26</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F33" s="3">
-        <f>Vtum</f>
+        <f>VD3_</f>
         <v>0.1</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I33" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=VD3_</v>
+      </c>
+      <c r="J33" s="9" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(VtumS)</f>
+        <v>=VD3_</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F34" s="3">
-        <f>Vtum</f>
+        <f>VD3_</f>
         <v>0.1</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I34" s="15" t="str">
+        <f t="shared" ref="I34:I65" ca="1" si="2">_xlfn.IFNA(_xlfn.FORMULATEXT(F34),"")</f>
+        <v>=VD3_</v>
+      </c>
+      <c r="J34" s="9" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(VtumS)</f>
+        <v>=VD3_</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F35" s="3">
-        <f>Vtum</f>
+        <f>VD3_</f>
         <v>0.1</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I35" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=VD3_</v>
+      </c>
+      <c r="J35" s="9" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(VtumS)</f>
+        <v>=VD3_</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>27</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
@@ -2524,25 +2581,29 @@
       <c r="G36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>28</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>33</v>
@@ -2554,24 +2615,28 @@
         <v>4</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I37" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>29</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>35</v>
@@ -2583,24 +2648,28 @@
         <v>4</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I38" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>30</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>41</v>
@@ -2612,24 +2681,28 @@
         <v>4</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I39" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>31</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>42</v>
@@ -2641,57 +2714,65 @@
         <v>4</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I40" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>32</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F41" s="3">
         <f>k13D*(Vc/Vtum)/(keD3_+k31D)</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="I41" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=k13D*(Vc/Vtum)/(keD3_+k31D)</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>33</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2700,81 +2781,97 @@
         <v>3</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="I42" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F43" s="3">
         <f>0.000000003*1000000*60*60*24</f>
         <v>259.2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I43" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=0.000000003*1000000*60*60*24</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F44" s="3">
         <v>8</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I44" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F45" s="3">
         <v>75</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I45" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
@@ -2783,153 +2880,169 @@
         <v>3</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I46" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F47" s="3">
-        <f>F52*Vtum/Vc</f>
+        <f>k31D_thurber*VD3_/VD1_</f>
         <v>3.5108571428571426E-2</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I47" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=k31D_thurber*VD3_/VD1_</v>
+      </c>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F48" s="3">
-        <f>k12D*Vtum/Vp</f>
+        <f>k12D*VD3_/VD2_</f>
         <v>1.3186813186813185E-2</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I48" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=k12D*VD3_/VD2_</v>
+      </c>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>34</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="15">
-        <f>F48</f>
-        <v>1.3186813186813185E-2</v>
+      <c r="F49" s="14">
+        <f>k13d_thurber</f>
+        <v>3.5108571428571426E-2</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="I49" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=k13d_thurber</v>
+      </c>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>35</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F50" s="3">
-        <f>k13D*2</f>
-        <v>2.637362637362637E-2</v>
+        <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="I50" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>36</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F51" s="3">
-        <f>k13D</f>
-        <v>1.3186813186813185E-2</v>
+        <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I51" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J51" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F52" s="3">
         <f>2*P*Rcap/Rkrogh^2</f>
@@ -2939,76 +3052,86 @@
         <v>4</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I52" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=2*P*Rcap/Rkrogh^2</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F53" s="3">
-        <f>Vc/Vtum*3*k13D</f>
-        <v>0.8307692307692307</v>
+        <f>VD1_/VD3_*3*k13D</f>
+        <v>2.21184</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I53" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=VD1_/VD3_*3*k13D</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>37</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="15">
-        <f>F53</f>
-        <v>0.8307692307692307</v>
+      <c r="F54" s="14">
+        <f>k31D_thurber</f>
+        <v>0.73727999999999994</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="I54" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=k31D_thurber</v>
+      </c>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>38</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>29</v>
@@ -3020,24 +3143,28 @@
         <v>4</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I55" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>39</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>31</v>
@@ -3049,27 +3176,31 @@
         <v>4</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I56" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>40</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -3078,81 +3209,91 @@
         <v>19</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I57" s="13"/>
-    </row>
-    <row r="58" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="I57" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J57" s="13"/>
+    </row>
+    <row r="58" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>41</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F58" s="3">
-        <f>LOG(2)/5.4*24</f>
-        <v>1.3379110918399164</v>
+        <v>0</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="I58" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>42</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F59" s="3">
-        <f>LOG(2)/5.4*24</f>
-        <v>1.3379110918399164</v>
+        <v>0</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="I59" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>43</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F60" s="3">
         <v>1</v>
@@ -3161,25 +3302,29 @@
         <v>4</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I60" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>44</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F61" s="3">
         <v>1</v>
@@ -3188,25 +3333,29 @@
         <v>4</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I61" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J61" s="9"/>
+    </row>
+    <row r="62" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>45</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3215,25 +3364,29 @@
         <v>4</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="I62" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>46</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -3242,25 +3395,29 @@
         <v>4</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I63" s="10"/>
-    </row>
-    <row r="64" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="I63" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>47</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -3269,25 +3426,29 @@
         <v>4</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="I64" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J64" s="9"/>
+    </row>
+    <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>48</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -3296,48 +3457,52 @@
         <v>4</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I65" s="9"/>
+        <v>129</v>
+      </c>
+      <c r="I65" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J65" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F280">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH("derived",F280)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="16" priority="9">
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="20" priority="9">
       <formula>$H2="fit"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:J22 A23:G28 I23:J28 A29:J42 A43:C45 A46:D46 H43:H46 J43:J46 A47:J1048576">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="calc">
+  <conditionalFormatting sqref="A23:G28 J23:K28 A43:C45 A46:D46 H43:I46 K43:K46 A47:K1048576 I3:I65 A29:K42 A1:K22">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H22 H29:H1048576">
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="literature">
+  <conditionalFormatting sqref="H1:I22 H29:I1048576 I3:I65">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="not used">
+  <conditionalFormatting sqref="H1:I1048576">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/ModelF_Herceptin_Params.xlsx
+++ b/data/ModelF_Herceptin_Params.xlsx
@@ -465,9 +465,6 @@
     <t>Assume it's 2x larger than drug (because soluble target is smaller)</t>
   </si>
   <si>
-    <t>check ~ 0.3</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -507,7 +504,10 @@
     <t>Formula from Cilliers16, from Thurber12 - 10.1016/j.jtbi.2012.08.034</t>
   </si>
   <si>
-    <t>Formula from Sameed's analysis</t>
+    <t>check ~ 0.3 or ~1</t>
+  </si>
+  <si>
+    <t>Formula from Sameed's analysis .</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +563,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +607,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -650,6 +656,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -1044,6 +1059,7 @@
   <colors>
     <mruColors>
       <color rgb="FFFFC7CE"/>
+      <color rgb="FFC6EFCE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1402,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1447,7 +1463,7 @@
         <v>109</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>43</v>
@@ -2413,7 +2429,7 @@
       <c r="F31" s="14">
         <v>0.1</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -2740,15 +2756,15 @@
       <c r="E41" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="17">
         <f>k13D*(Vc/Vtum)/(keD3_+k31D)</f>
-        <v>1</v>
-      </c>
-      <c r="G41" s="2" t="s">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G41" s="18" t="s">
         <v>3</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="I41" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2795,14 +2811,14 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F43" s="3">
         <f>0.000000003*1000000*60*60*24</f>
         <v>259.2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>55</v>
@@ -2821,13 +2837,13 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F44" s="3">
         <v>8</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>55</v>
@@ -2846,13 +2862,13 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F45" s="3">
         <v>75</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>55</v>
@@ -2871,7 +2887,7 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
@@ -2887,7 +2903,7 @@
         <v/>
       </c>
       <c r="J46" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2896,7 +2912,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F47" s="3">
         <f>k31D_thurber*VD3_/VD1_</f>
@@ -2920,7 +2936,7 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F48" s="3">
         <f>k12D*VD3_/VD2_</f>
@@ -2955,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="F49" s="14">
-        <f>k13d_thurber</f>
-        <v>3.5108571428571426E-2</v>
-      </c>
-      <c r="G49" s="2" t="s">
+        <f>k13d_prop</f>
+        <v>1.3186813186813185E-2</v>
+      </c>
+      <c r="G49" s="19" t="s">
         <v>4</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -2966,7 +2982,7 @@
       </c>
       <c r="I49" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=k13d_thurber</v>
+        <v>=k13d_prop</v>
       </c>
       <c r="J49" s="9"/>
     </row>
@@ -3042,7 +3058,7 @@
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F52" s="3">
         <f>2*P*Rcap/Rkrogh^2</f>
@@ -3059,7 +3075,7 @@
         <v>=2*P*Rcap/Rkrogh^2</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3068,11 +3084,11 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F53" s="3">
-        <f>VD1_/VD3_*3*k13D</f>
-        <v>2.21184</v>
+        <f>VD1_/VD3_*k13d_prop*3</f>
+        <v>0.8307692307692307</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>4</v>
@@ -3082,7 +3098,7 @@
       </c>
       <c r="I53" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=VD1_/VD3_*3*k13D</v>
+        <v>=VD1_/VD3_*k13d_prop*3</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>146</v>
@@ -3105,10 +3121,10 @@
         <v>12</v>
       </c>
       <c r="F54" s="14">
-        <f>k31D_thurber</f>
-        <v>0.73727999999999994</v>
-      </c>
-      <c r="G54" s="2" t="s">
+        <f>k31D_prop</f>
+        <v>0.8307692307692307</v>
+      </c>
+      <c r="G54" s="19" t="s">
         <v>4</v>
       </c>
       <c r="H54" s="2" t="s">
@@ -3116,7 +3132,7 @@
       </c>
       <c r="I54" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=k31D_thurber</v>
+        <v>=k31D_prop</v>
       </c>
       <c r="J54" s="9"/>
     </row>

--- a/data/ModelF_Herceptin_Params.xlsx
+++ b/data/ModelF_Herceptin_Params.xlsx
@@ -1419,7 +1419,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/ModelF_Herceptin_Params.xlsx
+++ b/data/ModelF_Herceptin_Params.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="149">
   <si>
     <t>Parameter</t>
   </si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t>Formula from Sameed's analysis .</t>
+  </si>
+  <si>
+    <t>chosen so that back and forth rates are equal</t>
+  </si>
+  <si>
+    <t>Marked guess because there are differing views if B = 0.3 (Deng16) or 1 (Thurber12)</t>
   </si>
 </sst>
 </file>
@@ -607,7 +613,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -666,6 +672,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -692,7 +701,27 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1074,21 +1103,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J65" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J65" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:J65"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Order" dataDxfId="9"/>
-    <tableColumn id="2" name="ParamType" dataDxfId="8"/>
-    <tableColumn id="3" name="Molecule" dataDxfId="7"/>
-    <tableColumn id="4" name="Description" dataDxfId="6"/>
-    <tableColumn id="5" name="Parameter" dataDxfId="5"/>
-    <tableColumn id="6" name="Value" dataDxfId="4"/>
-    <tableColumn id="7" name="Units" dataDxfId="3"/>
-    <tableColumn id="8" name="Source" dataDxfId="2"/>
-    <tableColumn id="10" name="Formula" dataDxfId="1">
+    <tableColumn id="1" name="Order" dataDxfId="11"/>
+    <tableColumn id="2" name="ParamType" dataDxfId="10"/>
+    <tableColumn id="3" name="Molecule" dataDxfId="9"/>
+    <tableColumn id="4" name="Description" dataDxfId="8"/>
+    <tableColumn id="5" name="Parameter" dataDxfId="7"/>
+    <tableColumn id="6" name="Value" dataDxfId="6"/>
+    <tableColumn id="7" name="Units" dataDxfId="5"/>
+    <tableColumn id="8" name="Source" dataDxfId="4"/>
+    <tableColumn id="10" name="Formula" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Comment or Reference" dataDxfId="0"/>
+    <tableColumn id="9" name="Comment or Reference" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1418,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2928,7 +2957,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>=k31D_thurber*VD3_/VD1_</v>
       </c>
-      <c r="J47" s="9"/>
+      <c r="J47" s="9" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
@@ -2980,11 +3011,13 @@
       <c r="H49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I49" s="15" t="str">
+      <c r="I49" s="14" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=k13d_prop</v>
       </c>
-      <c r="J49" s="9"/>
+      <c r="J49" s="14" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
@@ -3130,11 +3163,13 @@
       <c r="H54" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I54" s="15" t="str">
+      <c r="I54" s="19" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=k31D_prop</v>
       </c>
-      <c r="J54" s="9"/>
+      <c r="J54" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
@@ -3483,42 +3518,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F280">
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH("derived",F280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="22" priority="9">
       <formula>$H2="fit"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:G28 J23:K28 A43:C45 A46:D46 H43:I46 K43:K46 A47:K1048576 I3:I65 A29:K42 A1:K22">
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="calc">
+  <conditionalFormatting sqref="A23:G28 J23:K28 A43:C45 A46:D46 H43:I46 K43:K46 I3:I65 A29:K42 A1:K22 A47:K1048576">
+    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I22 H29:I1048576 I3:I65">
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/ModelF_Herceptin_Params.xlsx
+++ b/data/ModelF_Herceptin_Params.xlsx
@@ -453,9 +453,6 @@
     <t>no soluble target synthesisi, so irrelevant</t>
   </si>
   <si>
-    <t>Deng16 - 10.1080/19420862.2015.1136043 predicts 0.3 -- compute based on params listed</t>
-  </si>
-  <si>
     <t>set to 0 not used</t>
   </si>
   <si>
@@ -514,6 +511,9 @@
   </si>
   <si>
     <t>Marked guess because there are differing views if B = 0.3 (Deng16) or 1 (Thurber12)</t>
+  </si>
+  <si>
+    <t>Not used in model, but you should check to make sure it's around 0.3-1, otherwise parameters are odd</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,6 +674,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -1447,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1492,7 +1501,7 @@
         <v>109</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>43</v>
@@ -1521,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I2" s="15" t="str">
         <f t="shared" ref="I2:I33" ca="1" si="0">_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</f>
@@ -1552,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2207,7 +2216,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I23" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2240,7 +2249,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I24" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2271,7 +2280,7 @@
         <v>19</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I25" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2304,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I26" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2400,7 +2409,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I29" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2431,7 +2440,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I30" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2464,11 +2473,11 @@
       <c r="H31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="15" t="str">
+      <c r="I31" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="20" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2627,7 +2636,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I36" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2660,7 +2669,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I37" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2693,7 +2702,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I38" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2793,14 +2802,14 @@
         <v>3</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I41" s="15" t="str">
+        <v>144</v>
+      </c>
+      <c r="I41" s="21" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=k13D*(Vc/Vtum)/(keD3_+k31D)</v>
       </c>
-      <c r="J41" s="9" t="s">
-        <v>128</v>
+      <c r="J41" s="22" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2840,14 +2849,14 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F43" s="3">
         <f>0.000000003*1000000*60*60*24</f>
         <v>259.2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>55</v>
@@ -2866,13 +2875,13 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F44" s="3">
         <v>8</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>55</v>
@@ -2891,13 +2900,13 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F45" s="3">
         <v>75</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>55</v>
@@ -2916,7 +2925,7 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
@@ -2925,14 +2934,14 @@
         <v>3</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I46" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J46" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2941,7 +2950,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F47" s="3">
         <f>k31D_thurber*VD3_/VD1_</f>
@@ -2958,7 +2967,7 @@
         <v>=k31D_thurber*VD3_/VD1_</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2967,7 +2976,7 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F48" s="3">
         <f>k12D*VD3_/VD2_</f>
@@ -3016,7 +3025,7 @@
         <v>=k13d_prop</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3042,14 +3051,14 @@
         <v>4</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I50" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J50" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3075,7 +3084,7 @@
         <v>4</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I51" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3091,7 +3100,7 @@
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F52" s="3">
         <f>2*P*Rcap/Rkrogh^2</f>
@@ -3108,7 +3117,7 @@
         <v>=2*P*Rcap/Rkrogh^2</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3117,7 +3126,7 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F53" s="3">
         <f>VD1_/VD3_*k13d_prop*3</f>
@@ -3134,7 +3143,7 @@
         <v>=VD1_/VD3_*k13d_prop*3</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3168,7 +3177,7 @@
         <v>=k31D_prop</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3194,7 +3203,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I55" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3227,7 +3236,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I56" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3260,7 +3269,7 @@
         <v>19</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I57" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3291,7 +3300,7 @@
         <v>4</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I58" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3322,7 +3331,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I59" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3353,7 +3362,7 @@
         <v>4</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I60" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3384,7 +3393,7 @@
         <v>4</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I61" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3415,7 +3424,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I62" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3446,7 +3455,7 @@
         <v>4</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I63" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3477,7 +3486,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I64" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3508,7 +3517,7 @@
         <v>4</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I65" s="15" t="str">
         <f t="shared" ca="1" si="2"/>

--- a/data/ModelF_Herceptin_Params.xlsx
+++ b/data/ModelF_Herceptin_Params.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="157">
   <si>
     <t>Parameter</t>
   </si>
@@ -348,12 +348,6 @@
     <t>Tumo-&gt;Central Transit</t>
   </si>
   <si>
-    <t>Drug or Sol Complex</t>
-  </si>
-  <si>
-    <t>Sol Target</t>
-  </si>
-  <si>
     <t>Molecular Weight</t>
   </si>
   <si>
@@ -504,16 +498,46 @@
     <t>check ~ 0.3 or ~1</t>
   </si>
   <si>
-    <t>Formula from Sameed's analysis .</t>
-  </si>
-  <si>
-    <t>chosen so that back and forth rates are equal</t>
-  </si>
-  <si>
     <t>Marked guess because there are differing views if B = 0.3 (Deng16) or 1 (Thurber12)</t>
   </si>
   <si>
     <t>Not used in model, but you should check to make sure it's around 0.3-1, otherwise parameters are odd</t>
+  </si>
+  <si>
+    <t>Permeability</t>
+  </si>
+  <si>
+    <t>Capillary Radius</t>
+  </si>
+  <si>
+    <t>Krogh Cylindar Radius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Void fraction </t>
+  </si>
+  <si>
+    <t>Central--&gt;Tumor Transit : Thurber</t>
+  </si>
+  <si>
+    <t>Central--&gt;Tumor Transit : Proportional</t>
+  </si>
+  <si>
+    <t>Tumor--&gt;Central Transit : Thurber</t>
+  </si>
+  <si>
+    <t>Tumor--&gt;Central Transit : Proportional</t>
+  </si>
+  <si>
+    <t>Tumor-&gt;Central Transit</t>
+  </si>
+  <si>
+    <t>Drug or Sol</t>
+  </si>
+  <si>
+    <t>chosen so that back and forth rates are equal (Thurber12)</t>
+  </si>
+  <si>
+    <t>Formula from Sameed's analysis with 3 from B = 1/3</t>
   </si>
 </sst>
 </file>
@@ -710,7 +734,37 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -1112,21 +1166,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J65" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J65" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:J65"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Order" dataDxfId="11"/>
-    <tableColumn id="2" name="ParamType" dataDxfId="10"/>
-    <tableColumn id="3" name="Molecule" dataDxfId="9"/>
-    <tableColumn id="4" name="Description" dataDxfId="8"/>
-    <tableColumn id="5" name="Parameter" dataDxfId="7"/>
-    <tableColumn id="6" name="Value" dataDxfId="6"/>
-    <tableColumn id="7" name="Units" dataDxfId="5"/>
-    <tableColumn id="8" name="Source" dataDxfId="4"/>
-    <tableColumn id="10" name="Formula" dataDxfId="3">
+    <tableColumn id="1" name="Order" dataDxfId="14"/>
+    <tableColumn id="2" name="ParamType" dataDxfId="13"/>
+    <tableColumn id="3" name="Molecule" dataDxfId="12"/>
+    <tableColumn id="4" name="Description" dataDxfId="11"/>
+    <tableColumn id="5" name="Parameter" dataDxfId="10"/>
+    <tableColumn id="6" name="Value" dataDxfId="9"/>
+    <tableColumn id="7" name="Units" dataDxfId="8"/>
+    <tableColumn id="8" name="Source" dataDxfId="7"/>
+    <tableColumn id="10" name="Formula" dataDxfId="6">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Comment or Reference" dataDxfId="2"/>
+    <tableColumn id="9" name="Comment or Reference" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1456,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1498,10 +1552,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>43</v>
@@ -1530,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I2" s="15" t="str">
         <f t="shared" ref="I2:I33" ca="1" si="0">_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</f>
@@ -1561,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1599,7 +1653,7 @@
         <v/>
       </c>
       <c r="J4" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1664,7 +1718,7 @@
         <v/>
       </c>
       <c r="J6" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1697,7 +1751,7 @@
         <v/>
       </c>
       <c r="J7" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1730,7 +1784,7 @@
         <v/>
       </c>
       <c r="J8" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1811,7 +1865,7 @@
         <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11" s="3">
         <f>VD1_</f>
@@ -1843,7 +1897,7 @@
         <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F12" s="3">
         <f>VD1_</f>
@@ -1923,10 +1977,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>=Q/VD2_</v>
       </c>
-      <c r="J14" s="9" t="str">
-        <f t="shared" ref="J14" ca="1" si="1">_xlfn.FORMULATEXT(F14)</f>
-        <v>=Q/VD2_</v>
-      </c>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
@@ -1939,16 +1990,16 @@
         <v>71</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F15" s="3">
         <v>145</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>55</v>
@@ -1958,7 +2009,7 @@
         <v/>
       </c>
       <c r="J15" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1972,16 +2023,16 @@
         <v>81</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F16" s="3">
         <v>68.599999999999994</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>55</v>
@@ -1991,7 +2042,7 @@
         <v/>
       </c>
       <c r="J16" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2005,17 +2056,17 @@
         <v>73</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F17" s="3">
         <f>MWS</f>
         <v>68.599999999999994</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>55</v>
@@ -2025,7 +2076,7 @@
         <v>=MWS</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2058,7 +2109,7 @@
         <v/>
       </c>
       <c r="J18" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2091,7 +2142,7 @@
         <v/>
       </c>
       <c r="J19" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2124,7 +2175,7 @@
         <v/>
       </c>
       <c r="J20" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2157,7 +2208,7 @@
         <v/>
       </c>
       <c r="J21" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2190,7 +2241,7 @@
         <v/>
       </c>
       <c r="J22" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2216,14 +2267,14 @@
         <v>4</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I23" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J23" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2249,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I24" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2280,14 +2331,14 @@
         <v>19</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I25" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J25" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2313,29 +2364,31 @@
         <v>19</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I26" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J26" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>20.100000000000001</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="C27" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F27" s="12">
         <v>830</v>
@@ -2351,7 +2404,7 @@
         <v/>
       </c>
       <c r="J27" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -2409,7 +2462,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I29" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2440,7 +2493,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I30" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2456,7 +2509,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>85</v>
@@ -2511,10 +2564,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>=VD3_</v>
       </c>
-      <c r="J32" s="9" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(VtumS)</f>
-        <v>=VD3_</v>
-      </c>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
@@ -2546,14 +2596,15 @@
         <f t="shared" ca="1" si="0"/>
         <v>=VD3_</v>
       </c>
-      <c r="J33" s="9" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(VtumS)</f>
-        <v>=VD3_</v>
-      </c>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="8">
+        <v>26.1</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C34" s="8" t="s">
         <v>81</v>
       </c>
@@ -2561,7 +2612,7 @@
         <v>85</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F34" s="3">
         <f>VD3_</f>
@@ -2574,17 +2625,18 @@
         <v>54</v>
       </c>
       <c r="I34" s="15" t="str">
-        <f t="shared" ref="I34:I65" ca="1" si="2">_xlfn.IFNA(_xlfn.FORMULATEXT(F34),"")</f>
+        <f t="shared" ref="I34:I65" ca="1" si="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F34),"")</f>
         <v>=VD3_</v>
       </c>
-      <c r="J34" s="9" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(VtumS)</f>
-        <v>=VD3_</v>
-      </c>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C35" s="8" t="s">
         <v>84</v>
       </c>
@@ -2592,7 +2644,7 @@
         <v>85</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F35" s="3">
         <f>VD3_</f>
@@ -2605,13 +2657,10 @@
         <v>54</v>
       </c>
       <c r="I35" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>=VD3_</v>
       </c>
-      <c r="J35" s="9" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(VtumS)</f>
-        <v>=VD3_</v>
-      </c>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
@@ -2636,14 +2685,14 @@
         <v>4</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I36" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J36" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2669,14 +2718,14 @@
         <v>4</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I37" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J37" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2702,14 +2751,14 @@
         <v>4</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I38" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J38" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2738,11 +2787,11 @@
         <v>55</v>
       </c>
       <c r="I39" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J39" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2771,11 +2820,11 @@
         <v>55</v>
       </c>
       <c r="I40" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J40" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2786,13 +2835,13 @@
         <v>49</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F41" s="17">
         <f>k13D*(Vc/Vtum)/(keD3_+k31D)</f>
@@ -2802,14 +2851,14 @@
         <v>3</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" s="21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=k13D*(Vc/Vtum)/(keD3_+k31D)</v>
+      </c>
+      <c r="J41" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="I41" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=k13D*(Vc/Vtum)/(keD3_+k31D)</v>
-      </c>
-      <c r="J41" s="22" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2820,13 +2869,13 @@
         <v>49</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2835,97 +2884,129 @@
         <v>3</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I42" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="A43" s="8">
+        <v>33.1</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F43" s="3">
         <f>0.000000003*1000000*60*60*24</f>
         <v>259.2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>55</v>
       </c>
       <c r="I43" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>=0.000000003*1000000*60*60*24</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+      <c r="A44" s="8">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="E44" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F44" s="3">
         <v>8</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>55</v>
       </c>
       <c r="I44" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J44" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="A45" s="8">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="E45" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F45" s="3">
         <v>75</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>55</v>
       </c>
       <c r="I45" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J45" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="A46" s="8">
+        <v>33.4</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
@@ -2934,23 +3015,31 @@
         <v>3</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I46" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J46" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="A47" s="8">
+        <v>33.5</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="E47" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F47" s="3">
         <f>k31D_thurber*VD3_/VD1_</f>
@@ -2963,20 +3052,28 @@
         <v>54</v>
       </c>
       <c r="I47" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>=k31D_thurber*VD3_/VD1_</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+      <c r="A48" s="8">
+        <v>33.6</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="E48" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F48" s="3">
         <f>k12D*VD3_/VD2_</f>
@@ -2989,7 +3086,7 @@
         <v>54</v>
       </c>
       <c r="I48" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>=k12D*VD3_/VD2_</v>
       </c>
       <c r="J48" s="9"/>
@@ -3021,11 +3118,11 @@
         <v>57</v>
       </c>
       <c r="I49" s="14" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>=k13d_prop</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3051,14 +3148,14 @@
         <v>4</v>
       </c>
       <c r="H50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J50" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="I50" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3084,10 +3181,10 @@
         <v>4</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I51" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J51" s="9" t="s">
@@ -3095,12 +3192,20 @@
       </c>
     </row>
     <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="A52" s="8">
+        <v>36.1</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="E52" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F52" s="3">
         <f>2*P*Rcap/Rkrogh^2</f>
@@ -3113,20 +3218,28 @@
         <v>54</v>
       </c>
       <c r="I52" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>=2*P*Rcap/Rkrogh^2</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="A53" s="8">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="E53" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F53" s="3">
         <f>VD1_/VD3_*k13d_prop*3</f>
@@ -3139,11 +3252,11 @@
         <v>54</v>
       </c>
       <c r="I53" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>=VD1_/VD3_*k13d_prop*3</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3157,7 +3270,7 @@
         <v>71</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
@@ -3172,12 +3285,12 @@
       <c r="H54" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I54" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="I54" s="20" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=k31D_prop</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3191,7 +3304,7 @@
         <v>73</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>29</v>
@@ -3203,14 +3316,14 @@
         <v>4</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I55" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J55" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3224,7 +3337,7 @@
         <v>74</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>31</v>
@@ -3236,14 +3349,14 @@
         <v>4</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I56" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J56" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -3260,7 +3373,7 @@
         <v>80</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -3269,10 +3382,10 @@
         <v>19</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I57" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J57" s="13"/>
@@ -3288,10 +3401,10 @@
         <v>81</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3300,10 +3413,10 @@
         <v>4</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I58" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J58" s="9"/>
@@ -3319,10 +3432,10 @@
         <v>84</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -3331,10 +3444,10 @@
         <v>4</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I59" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J59" s="9"/>
@@ -3347,13 +3460,13 @@
         <v>50</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F60" s="3">
         <v>1</v>
@@ -3362,10 +3475,10 @@
         <v>4</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I60" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J60" s="9"/>
@@ -3378,13 +3491,13 @@
         <v>50</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F61" s="3">
         <v>1</v>
@@ -3393,10 +3506,10 @@
         <v>4</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I61" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J61" s="9"/>
@@ -3415,7 +3528,7 @@
         <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3424,10 +3537,10 @@
         <v>4</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I62" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J62" s="9"/>
@@ -3446,7 +3559,7 @@
         <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -3455,10 +3568,10 @@
         <v>4</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I63" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J63" s="10"/>
@@ -3471,13 +3584,13 @@
         <v>49</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -3486,10 +3599,10 @@
         <v>4</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I64" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J64" s="9"/>
@@ -3502,13 +3615,13 @@
         <v>49</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -3517,52 +3630,52 @@
         <v>4</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I65" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J65" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F280">
-    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH("derived",F280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="22" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>$H2="fit"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:G28 J23:K28 A43:C45 A46:D46 H43:I46 K43:K46 I3:I65 A29:K42 A1:K22 A47:K1048576">
-    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="calc">
+  <conditionalFormatting sqref="A23:G28 J23:K28 H43:I46 K43:K46 I3:I65 A1:K22 A54:K1048576 C47:K53 D46 A29:K42 A43:B53 C43:C46">
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I22 H29:I1048576 I3:I65">
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/ModelF_Herceptin_Params.xlsx
+++ b/data/ModelF_Herceptin_Params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="460" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="4920" yWindow="460" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,27 +219,18 @@
     <t>Tumor</t>
   </si>
   <si>
-    <t>TMDD</t>
-  </si>
-  <si>
     <t>Kd</t>
   </si>
   <si>
     <t>nM</t>
   </si>
   <si>
-    <t>TMDD-infer</t>
-  </si>
-  <si>
     <t>calc</t>
   </si>
   <si>
     <t>literature</t>
   </si>
   <si>
-    <t>TMDD-Shedding</t>
-  </si>
-  <si>
     <t>guess</t>
   </si>
   <si>
@@ -538,6 +529,15 @@
   </si>
   <si>
     <t>Formula from Sameed's analysis with 3 from B = 1/3</t>
+  </si>
+  <si>
+    <t>Tumor Distrib</t>
+  </si>
+  <si>
+    <t>Target Turnover</t>
+  </si>
+  <si>
+    <t>Binding</t>
   </si>
 </sst>
 </file>
@@ -734,17 +734,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1166,21 +1156,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J65" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J65" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:J65"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Order" dataDxfId="14"/>
-    <tableColumn id="2" name="ParamType" dataDxfId="13"/>
-    <tableColumn id="3" name="Molecule" dataDxfId="12"/>
-    <tableColumn id="4" name="Description" dataDxfId="11"/>
-    <tableColumn id="5" name="Parameter" dataDxfId="10"/>
-    <tableColumn id="6" name="Value" dataDxfId="9"/>
-    <tableColumn id="7" name="Units" dataDxfId="8"/>
-    <tableColumn id="8" name="Source" dataDxfId="7"/>
-    <tableColumn id="10" name="Formula" dataDxfId="6">
+    <tableColumn id="1" name="Order" dataDxfId="13"/>
+    <tableColumn id="2" name="ParamType" dataDxfId="12"/>
+    <tableColumn id="3" name="Molecule" dataDxfId="11"/>
+    <tableColumn id="4" name="Description" dataDxfId="10"/>
+    <tableColumn id="5" name="Parameter" dataDxfId="9"/>
+    <tableColumn id="6" name="Value" dataDxfId="8"/>
+    <tableColumn id="7" name="Units" dataDxfId="7"/>
+    <tableColumn id="8" name="Source" dataDxfId="6"/>
+    <tableColumn id="10" name="Formula" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Comment or Reference" dataDxfId="5"/>
+    <tableColumn id="9" name="Comment or Reference" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1510,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1537,10 +1527,10 @@
         <v>47</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -1552,10 +1542,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>43</v>
@@ -1569,10 +1559,10 @@
         <v>48</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1584,7 +1574,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I2" s="15" t="str">
         <f t="shared" ref="I2:I33" ca="1" si="0">_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</f>
@@ -1600,10 +1590,10 @@
         <v>48</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1615,7 +1605,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1631,10 +1621,10 @@
         <v>48</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>44</v>
@@ -1646,14 +1636,14 @@
         <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J4" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1664,10 +1654,10 @@
         <v>48</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
@@ -1680,7 +1670,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I5" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1696,10 +1686,10 @@
         <v>48</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>46</v>
@@ -1711,14 +1701,14 @@
         <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J6" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1729,10 +1719,10 @@
         <v>48</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -1744,14 +1734,14 @@
         <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I7" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J7" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1762,10 +1752,10 @@
         <v>48</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -1777,14 +1767,14 @@
         <v>2</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J8" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1795,10 +1785,10 @@
         <v>48</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -1811,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1827,10 +1817,10 @@
         <v>48</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -1843,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I10" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1859,13 +1849,13 @@
         <v>48</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F11" s="3">
         <f>VD1_</f>
@@ -1875,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I11" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1891,13 +1881,13 @@
         <v>48</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F12" s="3">
         <f>VD1_</f>
@@ -1907,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1923,10 +1913,10 @@
         <v>48</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
@@ -1939,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I13" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1955,10 +1945,10 @@
         <v>48</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -1971,7 +1961,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I14" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1984,32 +1974,32 @@
         <v>11.1</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F15" s="3">
         <v>145</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I15" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J15" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2017,32 +2007,32 @@
         <v>11.2</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F16" s="3">
         <v>68.599999999999994</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I16" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J16" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2050,33 +2040,33 @@
         <v>11.3</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F17" s="3">
         <f>MWS</f>
         <v>68.599999999999994</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I17" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=MWS</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2084,32 +2074,32 @@
         <v>12</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F18" s="12">
         <v>0.5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J18" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2117,13 +2107,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
@@ -2135,14 +2125,14 @@
         <v>4</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I19" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J19" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2150,13 +2140,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
@@ -2168,14 +2158,14 @@
         <v>4</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I20" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J20" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2183,13 +2173,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
@@ -2201,14 +2191,14 @@
         <v>20</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I21" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J21" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2216,13 +2206,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>17</v>
@@ -2234,14 +2224,14 @@
         <v>20</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I22" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J22" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2249,13 +2239,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -2267,14 +2257,14 @@
         <v>4</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I23" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J23" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2282,13 +2272,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>34</v>
@@ -2300,7 +2290,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I24" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2313,13 +2303,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>36</v>
@@ -2331,14 +2321,14 @@
         <v>19</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I25" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J25" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2346,13 +2336,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>37</v>
@@ -2364,14 +2354,14 @@
         <v>19</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I26" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J26" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2379,32 +2369,32 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F27" s="12">
         <v>830</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I27" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J27" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -2412,13 +2402,13 @@
         <v>21</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>38</v>
@@ -2431,7 +2421,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I28" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2444,13 +2434,13 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>39</v>
@@ -2462,7 +2452,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I29" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2475,13 +2465,13 @@
         <v>23</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>40</v>
@@ -2493,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I30" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2509,10 +2499,10 @@
         <v>49</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>23</v>
@@ -2524,14 +2514,14 @@
         <v>2</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I31" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J31" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2542,10 +2532,10 @@
         <v>49</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>25</v>
@@ -2558,7 +2548,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I32" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2574,10 +2564,10 @@
         <v>49</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>27</v>
@@ -2590,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I33" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2606,13 +2596,13 @@
         <v>49</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F34" s="3">
         <f>VD3_</f>
@@ -2622,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I34" s="15" t="str">
         <f t="shared" ref="I34:I65" ca="1" si="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F34),"")</f>
@@ -2638,13 +2628,13 @@
         <v>49</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F35" s="3">
         <f>VD3_</f>
@@ -2654,7 +2644,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I35" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2667,13 +2657,13 @@
         <v>27</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
@@ -2685,14 +2675,14 @@
         <v>4</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I36" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J36" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2700,13 +2690,13 @@
         <v>28</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>33</v>
@@ -2718,14 +2708,14 @@
         <v>4</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I37" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J37" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2733,13 +2723,13 @@
         <v>29</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>35</v>
@@ -2751,14 +2741,14 @@
         <v>4</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I38" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J38" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2766,13 +2756,13 @@
         <v>30</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>41</v>
@@ -2784,14 +2774,14 @@
         <v>4</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I39" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J39" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2799,13 +2789,13 @@
         <v>31</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>42</v>
@@ -2817,14 +2807,14 @@
         <v>4</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I40" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J40" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2832,16 +2822,16 @@
         <v>32</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F41" s="17">
         <f>k13D*(Vc/Vtum)/(keD3_+k31D)</f>
@@ -2851,14 +2841,14 @@
         <v>3</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I41" s="21" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=k13D*(Vc/Vtum)/(keD3_+k31D)</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2866,16 +2856,16 @@
         <v>33</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2884,7 +2874,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I42" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2897,33 +2887,33 @@
         <v>33.1</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F43" s="3">
         <f>0.000000003*1000000*60*60*24</f>
         <v>259.2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I43" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=0.000000003*1000000*60*60*24</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2931,32 +2921,32 @@
         <v>33.200000000000003</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F44" s="3">
         <v>8</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I44" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J44" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2964,32 +2954,32 @@
         <v>33.299999999999997</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F45" s="3">
         <v>75</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I45" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J45" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2997,16 +2987,16 @@
         <v>33.4</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
@@ -3015,14 +3005,14 @@
         <v>3</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I46" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J46" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -3030,16 +3020,16 @@
         <v>33.5</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F47" s="3">
         <f>k31D_thurber*VD3_/VD1_</f>
@@ -3049,14 +3039,14 @@
         <v>4</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I47" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=k31D_thurber*VD3_/VD1_</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -3064,16 +3054,16 @@
         <v>33.6</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F48" s="3">
         <f>k12D*VD3_/VD2_</f>
@@ -3083,7 +3073,7 @@
         <v>4</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I48" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3096,13 +3086,13 @@
         <v>34</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>11</v>
@@ -3115,14 +3105,14 @@
         <v>4</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I49" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=k13d_prop</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3130,13 +3120,13 @@
         <v>35</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>28</v>
@@ -3148,14 +3138,14 @@
         <v>4</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I50" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J50" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3163,13 +3153,13 @@
         <v>36</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>30</v>
@@ -3181,14 +3171,14 @@
         <v>4</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I51" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J51" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3196,16 +3186,16 @@
         <v>36.1</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F52" s="3">
         <f>2*P*Rcap/Rkrogh^2</f>
@@ -3215,14 +3205,14 @@
         <v>4</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I52" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=2*P*Rcap/Rkrogh^2</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3230,16 +3220,16 @@
         <v>36.200000000000003</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F53" s="3">
         <f>VD1_/VD3_*k13d_prop*3</f>
@@ -3249,14 +3239,14 @@
         <v>4</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I53" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=VD1_/VD3_*k13d_prop*3</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3264,13 +3254,13 @@
         <v>37</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
@@ -3283,14 +3273,14 @@
         <v>4</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I54" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=k31D_prop</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3298,13 +3288,13 @@
         <v>38</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>29</v>
@@ -3316,14 +3306,14 @@
         <v>4</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I55" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J55" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3331,13 +3321,13 @@
         <v>39</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>31</v>
@@ -3349,14 +3339,14 @@
         <v>4</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I56" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J56" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -3364,16 +3354,16 @@
         <v>40</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -3382,7 +3372,7 @@
         <v>19</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I57" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3395,16 +3385,16 @@
         <v>41</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3413,7 +3403,7 @@
         <v>4</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I58" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3426,16 +3416,16 @@
         <v>42</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -3444,7 +3434,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I59" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3457,16 +3447,16 @@
         <v>43</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F60" s="3">
         <v>1</v>
@@ -3475,7 +3465,7 @@
         <v>4</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I60" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3488,16 +3478,16 @@
         <v>44</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F61" s="3">
         <v>1</v>
@@ -3506,7 +3496,7 @@
         <v>4</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I61" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3519,16 +3509,16 @@
         <v>45</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3537,7 +3527,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I62" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3550,16 +3540,16 @@
         <v>46</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -3568,7 +3558,7 @@
         <v>4</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I63" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3581,16 +3571,16 @@
         <v>47</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -3599,7 +3589,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I64" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3612,16 +3602,16 @@
         <v>48</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -3630,7 +3620,7 @@
         <v>4</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I65" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3640,42 +3630,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F280">
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH("derived",F280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="24" priority="9">
       <formula>$H2="fit"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:G28 J23:K28 H43:I46 K43:K46 I3:I65 A1:K22 A54:K1048576 C47:K53 D46 A29:K42 A43:B53 C43:C46">
-    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="calc">
+  <conditionalFormatting sqref="J23:K28 H43:I46 K43:K46 I3:I65 A66:K1048576 D46 C43:C46 C42:K42 C47:K65 A42:B65 A30:K41 C29:K29 C23:G28 A23:B29 A1:K22">
+    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I22 H29:I1048576 I3:I65">
-    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/ModelF_Herceptin_Params.xlsx
+++ b/data/ModelF_Herceptin_Params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="460" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="500" yWindow="2160" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <definedName name="keD3_">Sheet1!$F$36</definedName>
     <definedName name="keM3_">Sheet1!$F$39</definedName>
     <definedName name="koff">Sheet1!$F$18</definedName>
+    <definedName name="kon">Sheet1!$F$21</definedName>
     <definedName name="kshed">Sheet1!$F$29</definedName>
     <definedName name="kshedM3">Sheet1!$F$29</definedName>
     <definedName name="M30_">Sheet1!$F$27</definedName>
@@ -734,47 +735,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -1156,21 +1117,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J65" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J65" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J65"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Order" dataDxfId="13"/>
-    <tableColumn id="2" name="ParamType" dataDxfId="12"/>
-    <tableColumn id="3" name="Molecule" dataDxfId="11"/>
-    <tableColumn id="4" name="Description" dataDxfId="10"/>
-    <tableColumn id="5" name="Parameter" dataDxfId="9"/>
-    <tableColumn id="6" name="Value" dataDxfId="8"/>
-    <tableColumn id="7" name="Units" dataDxfId="7"/>
-    <tableColumn id="8" name="Source" dataDxfId="6"/>
-    <tableColumn id="10" name="Formula" dataDxfId="5">
+    <tableColumn id="1" name="Order" dataDxfId="9"/>
+    <tableColumn id="2" name="ParamType" dataDxfId="8"/>
+    <tableColumn id="3" name="Molecule" dataDxfId="7"/>
+    <tableColumn id="4" name="Description" dataDxfId="6"/>
+    <tableColumn id="5" name="Parameter" dataDxfId="5"/>
+    <tableColumn id="6" name="Value" dataDxfId="4"/>
+    <tableColumn id="7" name="Units" dataDxfId="3"/>
+    <tableColumn id="8" name="Source" dataDxfId="2"/>
+    <tableColumn id="10" name="Formula" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Comment or Reference" dataDxfId="4"/>
+    <tableColumn id="9" name="Comment or Reference" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1500,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3630,42 +3591,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F280">
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH("derived",F280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="24" priority="9">
+    <cfRule type="expression" dxfId="20" priority="9">
       <formula>$H2="fit"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:K28 H43:I46 K43:K46 I3:I65 A66:K1048576 D46 C43:C46 C42:K42 C47:K65 A42:B65 A30:K41 C29:K29 C23:G28 A23:B29 A1:K22">
-    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I22 H29:I1048576 I3:I65">
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/ModelF_Herceptin_Params.xlsx
+++ b/data/ModelF_Herceptin_Params.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="500" yWindow="2160" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="7480" yWindow="2580" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/ModelF_Herceptin_Params.xlsx
+++ b/data/ModelF_Herceptin_Params.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="2580" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="500" yWindow="2160" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/ModelF_Herceptin_Params.xlsx
+++ b/data/ModelF_Herceptin_Params.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/GitHub/IMA_TumorModeling/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/GitHub/TumorModeling_IMA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="2580" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="12340" yWindow="4540" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$63</definedName>
     <definedName name="ABCdrug">Sheet1!$F$41</definedName>
     <definedName name="ABCsol">Sheet1!$F$42</definedName>
+    <definedName name="Cavg">Sheet1!$F$68</definedName>
     <definedName name="CL">Sheet1!$F$4</definedName>
+    <definedName name="Dose">Sheet1!$F$66</definedName>
     <definedName name="eps">Sheet1!$F$46</definedName>
     <definedName name="k12D">Sheet1!$F$13</definedName>
     <definedName name="k13D">Sheet1!$F$49</definedName>
@@ -33,10 +35,13 @@
     <definedName name="Kd">Sheet1!$F$18</definedName>
     <definedName name="keD">Sheet1!$F$5</definedName>
     <definedName name="keD3_">Sheet1!$F$36</definedName>
+    <definedName name="keDM3">Sheet1!$F$40</definedName>
+    <definedName name="keDMtot">Sheet1!$F$69</definedName>
     <definedName name="keM3_">Sheet1!$F$39</definedName>
     <definedName name="koff">Sheet1!$F$18</definedName>
     <definedName name="kon">Sheet1!$F$21</definedName>
     <definedName name="kshed">Sheet1!$F$29</definedName>
+    <definedName name="kshedDM3">Sheet1!$F$30</definedName>
     <definedName name="kshedM3">Sheet1!$F$29</definedName>
     <definedName name="M30_">Sheet1!$F$27</definedName>
     <definedName name="MWS">Sheet1!$F$16</definedName>
@@ -44,6 +49,7 @@
     <definedName name="Q">Sheet1!$F$6</definedName>
     <definedName name="Rcap">Sheet1!$F$44</definedName>
     <definedName name="Rkrogh">Sheet1!$F$45</definedName>
+    <definedName name="Tau">Sheet1!$F$67</definedName>
     <definedName name="Vc">Sheet1!$F$7</definedName>
     <definedName name="VcDS">Sheet1!$F$10</definedName>
     <definedName name="VcS">Sheet1!$F$9</definedName>
@@ -68,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="171">
   <si>
     <t>Parameter</t>
   </si>
@@ -539,6 +545,48 @@
   </si>
   <si>
     <t>Binding</t>
+  </si>
+  <si>
+    <t>Thiele Modulus</t>
+  </si>
+  <si>
+    <t>phi^2</t>
+  </si>
+  <si>
+    <t>check - &lt;1 means saturated</t>
+  </si>
+  <si>
+    <t>From Thurber08 - 10.1016/j.addr.2008.04.012</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>nmol</t>
+  </si>
+  <si>
+    <t>200 mg</t>
+  </si>
+  <si>
+    <t>Dose intensity</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Average concentration</t>
+  </si>
+  <si>
+    <t>Cavg</t>
+  </si>
+  <si>
+    <t>Total Elimination Tumor</t>
+  </si>
+  <si>
+    <t>keDMtot</t>
   </si>
 </sst>
 </file>
@@ -735,7 +783,687 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="90">
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1117,21 +1845,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J65" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J65" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A1:J65"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Order" dataDxfId="9"/>
-    <tableColumn id="2" name="ParamType" dataDxfId="8"/>
-    <tableColumn id="3" name="Molecule" dataDxfId="7"/>
-    <tableColumn id="4" name="Description" dataDxfId="6"/>
-    <tableColumn id="5" name="Parameter" dataDxfId="5"/>
-    <tableColumn id="6" name="Value" dataDxfId="4"/>
-    <tableColumn id="7" name="Units" dataDxfId="3"/>
-    <tableColumn id="8" name="Source" dataDxfId="2"/>
-    <tableColumn id="10" name="Formula" dataDxfId="1">
+    <tableColumn id="1" name="Order" dataDxfId="77"/>
+    <tableColumn id="2" name="ParamType" dataDxfId="76"/>
+    <tableColumn id="3" name="Molecule" dataDxfId="75"/>
+    <tableColumn id="4" name="Description" dataDxfId="74"/>
+    <tableColumn id="5" name="Parameter" dataDxfId="73"/>
+    <tableColumn id="6" name="Value" dataDxfId="72"/>
+    <tableColumn id="7" name="Units" dataDxfId="71"/>
+    <tableColumn id="8" name="Source" dataDxfId="70"/>
+    <tableColumn id="10" name="Formula" dataDxfId="69">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Comment or Reference" dataDxfId="0"/>
+    <tableColumn id="9" name="Comment or Reference" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1459,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2576,7 +3304,7 @@
         <v>52</v>
       </c>
       <c r="I34" s="15" t="str">
-        <f t="shared" ref="I34:I65" ca="1" si="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F34),"")</f>
+        <f t="shared" ref="I34:I70" ca="1" si="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F34),"")</f>
         <v>=VD3_</v>
       </c>
       <c r="J34" s="9"/>
@@ -3589,45 +4317,273 @@
       </c>
       <c r="J65" s="9"/>
     </row>
+    <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="8">
+        <v>72</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F66" s="3">
+        <f>8*80*6.67</f>
+        <v>4268.8</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I66" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=8*80*6.67</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="8">
+        <v>73</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F67" s="3">
+        <v>21</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I67" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J67" s="9"/>
+    </row>
+    <row r="68" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="8">
+        <v>74</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F68" s="3">
+        <f>Dose/(CL*Tau)</f>
+        <v>923.98268398268397</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I68" s="12" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F68),"")</f>
+        <v>=Dose/(CL*Tau)</v>
+      </c>
+      <c r="J68" s="9"/>
+    </row>
+    <row r="69" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="8">
+        <v>75</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F69" s="3">
+        <f>kshedDM3+keDM3</f>
+        <v>2.8512</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=kshedDM3+keDM3</v>
+      </c>
+      <c r="J69" s="10"/>
+    </row>
+    <row r="70" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="8">
+        <v>76</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F70" s="17">
+        <f>keDMtot*M30_/(k31D_thurber*Cavg)</f>
+        <v>3.4738374221092583</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="I70" s="22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=keDMtot*M30_/(k31D_thurber*Cavg)</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F280">
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="89" priority="28" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH("derived",F280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="88" priority="26">
       <formula>$H2="fit"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:K28 H43:I46 K43:K46 I3:I65 A66:K1048576 D46 C43:C46 C42:K42 C47:K65 A42:B65 A30:K41 C29:K29 C23:G28 A23:B29 A1:K22">
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="calc">
+  <conditionalFormatting sqref="J23:K28 H43:I46 K43:K46 I3:I65 A71:K1048576 D46 C43:C46 C42:K42 C47:K65 A42:B65 A30:K41 C29:K29 C23:G28 A23:B29 A1:K22">
+    <cfRule type="containsText" dxfId="87" priority="25" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I22 H29:I1048576 I3:I65">
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="literature">
+  <conditionalFormatting sqref="H1:I22 H29:I65 I3:I65 H71:I1048576">
+    <cfRule type="containsText" dxfId="86" priority="23" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="85" priority="24" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="not used">
+  <conditionalFormatting sqref="H1:I65 H71:I1048576">
+    <cfRule type="containsText" dxfId="84" priority="18" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="83" priority="19" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="82" priority="20" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="81" priority="21" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="80" priority="22" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66:K70 A66:A70">
+    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",A66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66:I70">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",I66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",I66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66:I70">
+    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",I66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",I66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",I66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",I66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",I66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66:H70">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66:H70">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66:H70">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66:H70">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
